--- a/Default.xlsx
+++ b/Default.xlsx
@@ -473,9 +473,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
@@ -511,13 +509,12 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.2578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1"/>

--- a/Default.xlsx
+++ b/Default.xlsx
@@ -473,7 +473,9 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
@@ -509,7 +511,9 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>

--- a/Default.xlsx
+++ b/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="SelectFlight" sheetId="4" r:id="rId4"/>
     <sheet name="Order" sheetId="5" r:id="rId5"/>
     <sheet name="Logout" sheetId="6" r:id="rId6"/>
+    <sheet name="Principale" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -569,6 +570,25 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/Default.xlsx
+++ b/Default.xlsx
@@ -12,11 +12,19 @@
     <sheet name="FlightSearch" sheetId="3" r:id="rId3"/>
     <sheet name="SelectFlight" sheetId="4" r:id="rId4"/>
     <sheet name="Order" sheetId="5" r:id="rId5"/>
-    <sheet name="Logout" sheetId="6" r:id="rId6"/>
-    <sheet name="Principale" sheetId="7" r:id="rId7"/>
+    <sheet name="Principale" sheetId="6" r:id="rId6"/>
+    <sheet name="Logout" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+  <si>
+    <t>num_order</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -475,7 +483,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -557,10 +565,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.38671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1"/>
+    <row customFormat="1">
+      <c t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
